--- a/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,573 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9758</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2932</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -580,112 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2604</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2367</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1168</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +532,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,13 +1287,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,26 +1354,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.32</t>
+          <t>44.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0121</t>
+          <t>1.9758</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470009</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8986</t>
+          <t>0.2932</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -996,32 +1420,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4567</t>
+          <t>0.2604</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1034,32 +1458,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012477</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国匠心精选12个月持有期混合A</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4181</t>
+          <t>0.2367</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1072,460 +1496,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2464</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2157</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006235</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方城镇消费主题混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012478</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国匠心精选12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006140</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发集嘉债券A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006141</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发集嘉债券C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>4.4</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -532,6 +549,2258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8473</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1117,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1287,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300856-科思股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>9.08</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -549,6 +566,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2800,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3386,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3556,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
